--- a/information/b+tree-diagrams.xlsx
+++ b/information/b+tree-diagrams.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\php-b+tree-v2\information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\php-b+tree-v2 - 12-18-2017\information\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22860" windowHeight="9450" xr2:uid="{BD29DBF3-1214-4626-A59F-D113EB1EBFB7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22860" windowHeight="9450" activeTab="1" xr2:uid="{BD29DBF3-1214-4626-A59F-D113EB1EBFB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -140,7 +140,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB52E13F-4C4B-42F1-BC56-16751088C52B}">
   <dimension ref="B1:AQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AU33" sqref="AU33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,140 +943,177 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3A68BD-A199-4C99-A8A4-BBE8B750B98E}">
   <dimension ref="B2:BU41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="3.85546875" style="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
+      <c r="R2" s="2">
+        <v>200</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
+      <c r="F6" s="2">
+        <v>70</v>
+      </c>
+      <c r="G6" s="2">
+        <v>90</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="AD6" s="2">
+        <v>300</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>400</v>
+      </c>
+      <c r="AF6" s="2"/>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
+      <c r="B10" s="2">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="F10" s="2">
+        <v>70</v>
+      </c>
+      <c r="G10" s="2">
+        <v>80</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="J10" s="2">
+        <v>90</v>
+      </c>
+      <c r="K10" s="2">
+        <v>100</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Z10" s="2">
+        <v>200</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>250</v>
+      </c>
+      <c r="AB10" s="2"/>
+      <c r="AD10" s="2">
+        <v>300</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF10" s="2"/>
+      <c r="AH10" s="2">
+        <v>400</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>500</v>
+      </c>
+      <c r="AJ10" s="2"/>
     </row>
     <row r="33" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="BC33" s="6"/>
-      <c r="BD33" s="6"/>
-      <c r="BE33" s="6"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="2"/>
+      <c r="BE33" s="2"/>
     </row>
     <row r="37" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="AE37" s="6"/>
-      <c r="AF37" s="6"/>
-      <c r="AG37" s="6"/>
-      <c r="AQ37" s="6"/>
-      <c r="AR37" s="6"/>
-      <c r="AS37" s="6"/>
-      <c r="BC37" s="6"/>
-      <c r="BD37" s="6"/>
-      <c r="BE37" s="6"/>
-      <c r="BO37" s="6"/>
-      <c r="BP37" s="6"/>
-      <c r="BQ37" s="6"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="2"/>
+      <c r="BC37" s="2"/>
+      <c r="BD37" s="2"/>
+      <c r="BE37" s="2"/>
+      <c r="BO37" s="2"/>
+      <c r="BP37" s="2"/>
+      <c r="BQ37" s="2"/>
     </row>
     <row r="41" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="AA41" s="6"/>
-      <c r="AB41" s="6"/>
-      <c r="AC41" s="6"/>
-      <c r="AE41" s="6"/>
-      <c r="AF41" s="6"/>
-      <c r="AG41" s="6"/>
-      <c r="AI41" s="6"/>
-      <c r="AJ41" s="6"/>
-      <c r="AK41" s="6"/>
-      <c r="AM41" s="6"/>
-      <c r="AN41" s="6"/>
-      <c r="AO41" s="6"/>
-      <c r="AQ41" s="6"/>
-      <c r="AR41" s="6"/>
-      <c r="AS41" s="6"/>
-      <c r="AU41" s="6"/>
-      <c r="AV41" s="6"/>
-      <c r="AW41" s="6"/>
-      <c r="AY41" s="6"/>
-      <c r="AZ41" s="6"/>
-      <c r="BA41" s="6"/>
-      <c r="BC41" s="6"/>
-      <c r="BD41" s="6"/>
-      <c r="BE41" s="6"/>
-      <c r="BG41" s="6"/>
-      <c r="BH41" s="6"/>
-      <c r="BI41" s="6"/>
-      <c r="BK41" s="6"/>
-      <c r="BL41" s="6"/>
-      <c r="BM41" s="6"/>
-      <c r="BO41" s="6"/>
-      <c r="BP41" s="6"/>
-      <c r="BQ41" s="6"/>
-      <c r="BS41" s="6"/>
-      <c r="BT41" s="6"/>
-      <c r="BU41" s="6"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="2"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2"/>
+      <c r="AM41" s="2"/>
+      <c r="AN41" s="2"/>
+      <c r="AO41" s="2"/>
+      <c r="AQ41" s="2"/>
+      <c r="AR41" s="2"/>
+      <c r="AS41" s="2"/>
+      <c r="AU41" s="2"/>
+      <c r="AV41" s="2"/>
+      <c r="AW41" s="2"/>
+      <c r="AY41" s="2"/>
+      <c r="AZ41" s="2"/>
+      <c r="BA41" s="2"/>
+      <c r="BC41" s="2"/>
+      <c r="BD41" s="2"/>
+      <c r="BE41" s="2"/>
+      <c r="BG41" s="2"/>
+      <c r="BH41" s="2"/>
+      <c r="BI41" s="2"/>
+      <c r="BK41" s="2"/>
+      <c r="BL41" s="2"/>
+      <c r="BM41" s="2"/>
+      <c r="BO41" s="2"/>
+      <c r="BP41" s="2"/>
+      <c r="BQ41" s="2"/>
+      <c r="BS41" s="2"/>
+      <c r="BT41" s="2"/>
+      <c r="BU41" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
